--- a/ClassStudents.xlsx
+++ b/ClassStudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\Scrapy\scrapyLearn\webcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E669D9D-1B47-42E7-845D-6FF242FCF8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B641113-FC11-4838-9F8E-31F45E0DC945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>班级名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+  <si>
+    <t>人工智能2101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生姓名1</t>
+    <t>李凯峰</t>
+  </si>
+  <si>
+    <t>胡嘉曦</t>
+  </si>
+  <si>
+    <t>李琦</t>
+  </si>
+  <si>
+    <t>郑毅</t>
+  </si>
+  <si>
+    <t>丁雯</t>
+  </si>
+  <si>
+    <t>李芳华</t>
+  </si>
+  <si>
+    <t>朱方顺</t>
+  </si>
+  <si>
+    <t>周奇德</t>
+  </si>
+  <si>
+    <t>卢航</t>
+  </si>
+  <si>
+    <t>伍菁菁</t>
+  </si>
+  <si>
+    <t>丰凡宇</t>
+  </si>
+  <si>
+    <t>左涛</t>
+  </si>
+  <si>
+    <t>梁伟杰</t>
+  </si>
+  <si>
+    <t>贺歆如</t>
+  </si>
+  <si>
+    <t>唐森棚</t>
+  </si>
+  <si>
+    <t>陈思如</t>
+  </si>
+  <si>
+    <t>陈文</t>
+  </si>
+  <si>
+    <t>李晚军</t>
+  </si>
+  <si>
+    <t>谢湘豪</t>
+  </si>
+  <si>
+    <t>刘星宇</t>
+  </si>
+  <si>
+    <t>宋梦丽</t>
+  </si>
+  <si>
+    <t>罗杰</t>
+  </si>
+  <si>
+    <t>彭文韬</t>
+  </si>
+  <si>
+    <t>李超</t>
+  </si>
+  <si>
+    <t>黎海静</t>
+  </si>
+  <si>
+    <t>张钰楠</t>
+  </si>
+  <si>
+    <t>曹贺茜</t>
+  </si>
+  <si>
+    <t>黄亿鑫</t>
+  </si>
+  <si>
+    <t>刘标</t>
+  </si>
+  <si>
+    <t>王地俊</t>
+  </si>
+  <si>
+    <t>肖闯</t>
+  </si>
+  <si>
+    <t>谢亮</t>
+  </si>
+  <si>
+    <t>喻佳凯</t>
+  </si>
+  <si>
+    <t>杨佳鑫</t>
+  </si>
+  <si>
+    <t>刘赛男</t>
+  </si>
+  <si>
+    <t>彭康</t>
+  </si>
+  <si>
+    <t>其它班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生姓名2</t>
-  </si>
-  <si>
-    <t>学生姓名3</t>
-  </si>
-  <si>
-    <t>学生姓名4</t>
-  </si>
-  <si>
-    <t>学生姓名5</t>
-  </si>
-  <si>
-    <t>学生姓名6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +157,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -90,13 +199,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,140 +493,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ClassStudents.xlsx
+++ b/ClassStudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\Scrapy\scrapyLearn\webcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B641113-FC11-4838-9F8E-31F45E0DC945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5F3EBE-C988-40FD-8BD4-FD969DE0FE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>人工智能2101</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,18 +37,12 @@
     <t>胡嘉曦</t>
   </si>
   <si>
-    <t>李琦</t>
-  </si>
-  <si>
     <t>郑毅</t>
   </si>
   <si>
     <t>丁雯</t>
   </si>
   <si>
-    <t>李芳华</t>
-  </si>
-  <si>
     <t>朱方顺</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>李超</t>
   </si>
   <si>
-    <t>黎海静</t>
-  </si>
-  <si>
     <t>张钰楠</t>
   </si>
   <si>
@@ -137,10 +128,6 @@
   </si>
   <si>
     <t>彭康</t>
-  </si>
-  <si>
-    <t>其它班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -493,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,297 +496,204 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ClassStudents.xlsx
+++ b/ClassStudents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\Scrapy\scrapyLearn\webcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5F3EBE-C988-40FD-8BD4-FD969DE0FE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B067F-7838-4928-8AC4-A1D2CB21C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +165,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +217,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,214 +510,215 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="4"/>

--- a/ClassStudents.xlsx
+++ b/ClassStudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\Scrapy\scrapyLearn\webcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B067F-7838-4928-8AC4-A1D2CB21C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF118D4-474E-4FCF-8753-13C2EE857E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>人工智能2101</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,13 +128,117 @@
   </si>
   <si>
     <t>彭康</t>
+  </si>
+  <si>
+    <t>人工智能2102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾锦炜</t>
+  </si>
+  <si>
+    <t>代荣哲</t>
+  </si>
+  <si>
+    <t>肖钰波</t>
+  </si>
+  <si>
+    <t>李鑫波</t>
+  </si>
+  <si>
+    <t>王宇航</t>
+  </si>
+  <si>
+    <t>张雅知</t>
+  </si>
+  <si>
+    <t>王萌</t>
+  </si>
+  <si>
+    <t>陈一航</t>
+  </si>
+  <si>
+    <t>潘博文</t>
+  </si>
+  <si>
+    <t>刘传锟</t>
+  </si>
+  <si>
+    <t>张轩</t>
+  </si>
+  <si>
+    <t>罗妍婷</t>
+  </si>
+  <si>
+    <t>梁芸宁</t>
+  </si>
+  <si>
+    <t>唐啸宇</t>
+  </si>
+  <si>
+    <t>蒋雨波</t>
+  </si>
+  <si>
+    <t>朱智敏</t>
+  </si>
+  <si>
+    <t>葛旭昌</t>
+  </si>
+  <si>
+    <t>罗娜</t>
+  </si>
+  <si>
+    <t>梁霄</t>
+  </si>
+  <si>
+    <t>张杰宇</t>
+  </si>
+  <si>
+    <t>刘明杰</t>
+  </si>
+  <si>
+    <t>唐帆</t>
+  </si>
+  <si>
+    <t>陈秋波</t>
+  </si>
+  <si>
+    <t>罗宇文</t>
+  </si>
+  <si>
+    <t>周升俊</t>
+  </si>
+  <si>
+    <t>杜伟</t>
+  </si>
+  <si>
+    <t>陆宣丞</t>
+  </si>
+  <si>
+    <t>曹骏</t>
+  </si>
+  <si>
+    <t>罗丹雅</t>
+  </si>
+  <si>
+    <t>吴承波</t>
+  </si>
+  <si>
+    <t>胡雨洁</t>
+  </si>
+  <si>
+    <t>谢健林</t>
+  </si>
+  <si>
+    <t>邹明纬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,22 +248,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -204,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,19 +301,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,218 +595,287 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
